--- a/biology/Zoologie/Bashford_Dean/Bashford_Dean.xlsx
+++ b/biology/Zoologie/Bashford_Dean/Bashford_Dean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bashford Dean, (1867-1928) est un zoologiste américain, spécialiste en ichtyologie et connaisseur expert en armures médiévales.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il enseigne la zoologie à l'université Columbia. Il est un des principaux créateurs du département des armes et des armures dans les musées américains. Il initie complètement la pratique de collection d'armes. Grâce à de nombreuses acquisitions, il construit la collection nationale américaine. 
 Il est l'auteur de Bibliography of Fishes (1916–23).
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Bashford Dean, « A visit to the Japanese Zoological Station at Misaki », Popular Science Monthly,‎ juillet 1904, p. 195–204 (ISSN 0161-7370, lire sur Wikisource).</t>
         </is>
